--- a/biology/Botanique/Liste_des_espèces_du_genre_Banksia/Liste_des_espèces_du_genre_Banksia.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Banksia/Liste_des_espèces_du_genre_Banksia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Banksia</t>
+          <t>Liste_des_espèces_du_genre_Banksia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste des espèces du genre Banksia est classée dans l'ordre alphabétique et à jour à la date de 2005. Elle suit la classification d'Alexander Segger George (1999). Les exceptions sont indiquées dans les notes en bas de page. Pour la classification complète du genre Banksia, voir Taxonomie du genre Banksia.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Banksia</t>
+          <t>Liste_des_espèces_du_genre_Banksia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des espèces de Banksia</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Banksia aculeata - Banksia épineux
 Banksia aemula - Banksia Wallum
